--- a/Daisy-xls/ResearchPages/research-prostate-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-prostate-cancer.xlsx
@@ -219,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,12 +242,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -320,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,7 +645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,7 +682,9 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="25">
+        <v>488735</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>45</v>
       </c>
@@ -681,7 +701,9 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="25">
+        <v>899255</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
@@ -697,7 +719,9 @@
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="25">
+        <v>826715</v>
+      </c>
       <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
@@ -713,7 +737,9 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="25">
+        <v>797388</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
@@ -731,7 +757,9 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="25">
+        <v>675784</v>
+      </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
@@ -747,7 +775,9 @@
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="25">
+        <v>675784</v>
+      </c>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
@@ -763,7 +793,9 @@
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="25">
+        <v>623825</v>
+      </c>
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
@@ -781,7 +813,9 @@
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="25">
+        <v>617567</v>
+      </c>
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
@@ -797,7 +831,9 @@
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="25">
+        <v>609331</v>
+      </c>
       <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
@@ -815,7 +851,9 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="25">
+        <v>99866</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
@@ -833,7 +871,9 @@
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="15">
+        <v>819948</v>
+      </c>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -851,7 +891,9 @@
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="25">
+        <v>419549</v>
+      </c>
       <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
@@ -869,7 +911,9 @@
       <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="25">
+        <v>112358</v>
+      </c>
       <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
@@ -885,7 +929,9 @@
       <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="25">
+        <v>88746</v>
+      </c>
       <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
@@ -901,7 +947,9 @@
       <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="25">
+        <v>73712</v>
+      </c>
       <c r="C16" s="11" t="s">
         <v>3</v>
       </c>
@@ -919,7 +967,9 @@
       <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="25">
+        <v>73714</v>
+      </c>
       <c r="C17" s="11" t="s">
         <v>4</v>
       </c>
@@ -937,7 +987,9 @@
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="25">
+        <v>211442</v>
+      </c>
       <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
